--- a/biology/Botanique/Afzelia_africana/Afzelia_africana.xlsx
+++ b/biology/Botanique/Afzelia_africana/Afzelia_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afzelia africana est une espèce d'arbres de la famille des Fabaceae (sous-famille des Caesalpinioideae), originaire d'Afrique.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce Afzelia africana a été décrite par le botaniste britannique James Edward Smith et le mycologue sud-africain Christiaan Hendrik Persoon en 1798.
-Synonymes homotypiques[1] :
+Synonymes homotypiques :
 Intsia africana (Sm. ex Pers.) Kuntze (1891)
 Pahudia africana (Sm. ex Pers.) Prain
 L'espèce est appelée Linké en Wolof.</t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbre, pouvant atteindre 35 m de haut. 
 Ses feuilles sont paripennées avec de 4 à 6 paires de folioles.
@@ -578,10 +594,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Répandu en Afrique de l'Ouest dans les zones de forêts sèches à la limite de la savane.
-On le trouve principalement dans l'hémisphère nord, du Sénégal jusqu'au Cameroun et l'Ouganda à l'est[1].
+On le trouve principalement dans l'hémisphère nord, du Sénégal jusqu'au Cameroun et l'Ouganda à l'est.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois dur, appelé « afzelia » ou « doussié rouge », est recherché pour les constructions extérieures et en particulier pour la marine[2]. Il peut aussi provenir des autres espèces d’Afzelia qui sont toutes exploitées pour leur bois.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois dur, appelé « afzelia » ou « doussié rouge », est recherché pour les constructions extérieures et en particulier pour la marine. Il peut aussi provenir des autres espèces d’Afzelia qui sont toutes exploitées pour leur bois.
 On peut extraire de la graine une huile aromatique.
 </t>
         </is>
